--- a/data/prediksi S1.xlsx
+++ b/data/prediksi S1.xlsx
@@ -450,7 +450,7 @@
         <v>2.19</v>
       </c>
       <c r="B2" t="n">
-        <v>2.700502848861837</v>
+        <v>2.639465405292099</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1.96</v>
       </c>
       <c r="B3" t="n">
-        <v>2.232648223679207</v>
+        <v>2.217827036492714</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1.54</v>
       </c>
       <c r="B4" t="n">
-        <v>2.03655672514544</v>
+        <v>2.036618151776223</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1.32</v>
       </c>
       <c r="B5" t="n">
-        <v>1.568491643515743</v>
+        <v>1.620378260570923</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1.42</v>
       </c>
       <c r="B6" t="n">
-        <v>1.367229078813765</v>
+        <v>1.418837325081674</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1.44</v>
       </c>
       <c r="B7" t="n">
-        <v>1.448646036198512</v>
+        <v>1.514409606015407</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1.59</v>
       </c>
       <c r="B8" t="n">
-        <v>1.39289403048217</v>
+        <v>1.489984564022981</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1.68</v>
       </c>
       <c r="B9" t="n">
-        <v>1.618789049836928</v>
+        <v>1.649361704589415</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1.55</v>
       </c>
       <c r="B10" t="n">
-        <v>1.776216250211465</v>
+        <v>1.753956182839451</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1.38</v>
       </c>
       <c r="B11" t="n">
-        <v>1.627018290847279</v>
+        <v>1.619440865037642</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1.37</v>
       </c>
       <c r="B12" t="n">
-        <v>1.559448125671723</v>
+        <v>1.503600926523208</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1.42</v>
       </c>
       <c r="B13" t="n">
-        <v>1.623953808397195</v>
+        <v>1.532883206243719</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1.68</v>
       </c>
       <c r="B14" t="n">
-        <v>1.623356976789089</v>
+        <v>1.561021202408977</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1.33</v>
       </c>
       <c r="B15" t="n">
-        <v>1.883580039023626</v>
+        <v>1.801212312076271</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1.52</v>
       </c>
       <c r="B16" t="n">
-        <v>1.305495184331472</v>
+        <v>1.37565140122646</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1.59</v>
       </c>
       <c r="B17" t="n">
-        <v>1.560636419319281</v>
+        <v>1.600024712846893</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1.6</v>
       </c>
       <c r="B18" t="n">
-        <v>1.639988432037153</v>
+        <v>1.666244993927299</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1.66</v>
       </c>
       <c r="B19" t="n">
-        <v>1.663773095750949</v>
+        <v>1.66413136786957</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1.75</v>
       </c>
       <c r="B20" t="n">
-        <v>1.759644996339141</v>
+        <v>1.739380917716154</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1.87</v>
       </c>
       <c r="B21" t="n">
-        <v>1.882445006847885</v>
+        <v>1.835058358169446</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>2.18</v>
       </c>
       <c r="B22" t="n">
-        <v>1.990228533622982</v>
+        <v>1.938834019950956</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>2.06</v>
       </c>
       <c r="B23" t="n">
-        <v>2.448213718112642</v>
+        <v>2.277010249789034</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>2.640000000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>2.186629652480331</v>
+        <v>2.096395477557294</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>3.47</v>
       </c>
       <c r="B25" t="n">
-        <v>2.995309908246624</v>
+        <v>2.731698802896672</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>3.55</v>
       </c>
       <c r="B26" t="n">
-        <v>4.057954065068812</v>
+        <v>3.566418251451577</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>4.35</v>
       </c>
       <c r="B27" t="n">
-        <v>4.02411141241134</v>
+        <v>3.551031222071516</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>4.94</v>
       </c>
       <c r="B28" t="n">
-        <v>5.125399201768399</v>
+        <v>4.407653979782959</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>4.69</v>
       </c>
       <c r="B29" t="n">
-        <v>5.850445975490635</v>
+        <v>4.987728407586308</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>5.95</v>
       </c>
       <c r="B30" t="n">
-        <v>5.377767922003617</v>
+        <v>4.635696346584314</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>5.71</v>
       </c>
       <c r="B31" t="n">
-        <v>7.211511177600529</v>
+        <v>6.06537317306559</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>5.42</v>
       </c>
       <c r="B32" t="n">
-        <v>6.662301866313922</v>
+        <v>5.653155584391189</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>5.509999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>6.144088019705747</v>
+        <v>5.30556725678998</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>5.280000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>6.366787055366847</v>
+        <v>5.508685590416204</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>5.47</v>
       </c>
       <c r="B35" t="n">
-        <v>5.860497700221362</v>
+        <v>5.196946271486131</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>4.97</v>
       </c>
       <c r="B36" t="n">
-        <v>6.024496492499079</v>
+        <v>5.365730861668759</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>4.33</v>
       </c>
       <c r="B37" t="n">
-        <v>5.340663252482325</v>
+        <v>4.85555259695938</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="n">
-        <v>4.234321063793188</v>
+        <v>4.168796580852864</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>3.52</v>
       </c>
       <c r="B39" t="n">
-        <v>3.956546528404942</v>
+        <v>3.924851244093031</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>3.08</v>
       </c>
       <c r="B40" t="n">
-        <v>3.465853720522575</v>
+        <v>3.47720937947459</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>3.27</v>
       </c>
       <c r="B41" t="n">
-        <v>2.981333435706624</v>
+        <v>3.047701714472935</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>2.28</v>
       </c>
       <c r="B42" t="n">
-        <v>3.325176061535921</v>
+        <v>3.290145038974343</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>2.56</v>
       </c>
       <c r="B43" t="n">
-        <v>2.120702320702102</v>
+        <v>2.222775968806819</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>2.86</v>
       </c>
       <c r="B44" t="n">
-        <v>2.749442016006891</v>
+        <v>2.640530753521842</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>2.61</v>
       </c>
       <c r="B45" t="n">
-        <v>3.185064178012347</v>
+        <v>2.969150149921303</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>2.830028194830541</v>
+        <v>2.635396026815513</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>2.75</v>
       </c>
       <c r="B47" t="n">
-        <v>2.914414977100543</v>
+        <v>2.662192547122466</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>3.05</v>
       </c>
       <c r="B48" t="n">
-        <v>3.289655028990788</v>
+        <v>2.914357307922665</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="n">
-        <v>3.509652011226808</v>
+        <v>3.164445579426034</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>2.84</v>
       </c>
       <c r="B50" t="n">
-        <v>3.487650679256623</v>
+        <v>3.113068229757405</v>
       </c>
     </row>
   </sheetData>

--- a/data/prediksi S1.xlsx
+++ b/data/prediksi S1.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data E\KULIAH\SEMESTER KULIAH\SKRIPSI\SKRIPSI FIX\UNTUK SKRIPSI FINAL DI SINI\AppPrediksiInflasi\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD37EE2C-5D64-45F0-B8A2-7B29F33101FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +78,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,421 +411,566 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>actual</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>predict</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B2" s="4">
         <v>2.19</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.639465405292099</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C2" s="4">
+        <v>2.6394654052920989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B3" s="4">
         <v>1.96</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" s="4">
         <v>2.217827036492714</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B4" s="4">
         <v>1.54</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" s="4">
         <v>2.036618151776223</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44044</v>
+      </c>
+      <c r="B5" s="4">
         <v>1.32</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.620378260570923</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C5" s="4">
+        <v>1.6203782605709229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B6" s="4">
         <v>1.42</v>
       </c>
-      <c r="B6" t="n">
-        <v>1.418837325081674</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C6" s="4">
+        <v>1.4188373250816739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B7" s="4">
         <v>1.44</v>
       </c>
-      <c r="B7" t="n">
-        <v>1.514409606015407</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C7" s="4">
+        <v>1.5144096060154071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44136</v>
+      </c>
+      <c r="B8" s="4">
         <v>1.59</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" s="4">
         <v>1.489984564022981</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44166</v>
+      </c>
+      <c r="B9" s="4">
         <v>1.68</v>
       </c>
-      <c r="B9" t="n">
-        <v>1.649361704589415</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C9" s="4">
+        <v>1.6493617045894149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B10" s="4">
         <v>1.55</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" s="4">
         <v>1.753956182839451</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B11" s="4">
         <v>1.38</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" s="4">
         <v>1.619440865037642</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B12" s="4">
         <v>1.37</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" s="4">
         <v>1.503600926523208</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B13" s="4">
         <v>1.42</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" s="4">
         <v>1.532883206243719</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="4">
         <v>1.68</v>
       </c>
-      <c r="B14" t="n">
-        <v>1.561021202408977</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="C14" s="4">
+        <v>1.5610212024089769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B15" s="4">
         <v>1.33</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.801212312076271</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="C15" s="4">
+        <v>1.8012123120762711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B16" s="4">
         <v>1.52</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" s="4">
         <v>1.37565140122646</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44409</v>
+      </c>
+      <c r="B17" s="4">
         <v>1.59</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" s="4">
         <v>1.600024712846893</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B18" s="4">
         <v>1.6</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" s="4">
         <v>1.666244993927299</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44470</v>
+      </c>
+      <c r="B19" s="4">
         <v>1.66</v>
       </c>
-      <c r="B19" t="n">
-        <v>1.66413136786957</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="C19" s="4">
+        <v>1.6641313678695699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B20" s="4">
         <v>1.75</v>
       </c>
-      <c r="B20" t="n">
-        <v>1.739380917716154</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="C20" s="4">
+        <v>1.7393809177161541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B21" s="4">
         <v>1.87</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" s="4">
         <v>1.835058358169446</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.938834019950956</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44562</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.9388340199509559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B23" s="4">
         <v>2.06</v>
       </c>
-      <c r="B23" t="n">
-        <v>2.277010249789034</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="C23" s="4">
+        <v>2.2770102497890341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B24" s="4">
         <v>2.640000000000001</v>
       </c>
-      <c r="B24" t="n">
-        <v>2.096395477557294</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="C24" s="4">
+        <v>2.0963954775572939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B25" s="4">
         <v>3.47</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" s="4">
         <v>2.731698802896672</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44682</v>
+      </c>
+      <c r="B26" s="4">
         <v>3.55</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" s="4">
         <v>3.566418251451577</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.551031222071516</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4.407653979782959</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4.987728407586308</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3.5510312220715159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4.4076539797829586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4.9877284075863084</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B30" s="4">
         <v>5.95</v>
       </c>
-      <c r="B30" t="n">
-        <v>4.635696346584314</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="C30" s="4">
+        <v>4.6356963465843144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44835</v>
+      </c>
+      <c r="B31" s="4">
         <v>5.71</v>
       </c>
-      <c r="B31" t="n">
-        <v>6.06537317306559</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="C31" s="4">
+        <v>6.0653731730655904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44866</v>
+      </c>
+      <c r="B32" s="4">
         <v>5.42</v>
       </c>
-      <c r="B32" t="n">
-        <v>5.653155584391189</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>5.509999999999999</v>
-      </c>
-      <c r="B33" t="n">
-        <v>5.30556725678998</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>5.280000000000001</v>
-      </c>
-      <c r="B34" t="n">
-        <v>5.508685590416204</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="C32" s="4">
+        <v>5.6531555843911887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44896</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.5099999999999989</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.3055672567899803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44927</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5.2800000000000011</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.5086855904162038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B35" s="4">
         <v>5.47</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" s="4">
         <v>5.196946271486131</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B36" s="4">
         <v>4.97</v>
       </c>
-      <c r="B36" t="n">
-        <v>5.365730861668759</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="C36" s="4">
+        <v>5.3657308616687587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B37" s="4">
         <v>4.33</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" s="4">
         <v>4.85555259695938</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B38" s="4">
         <v>4</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" s="4">
         <v>4.168796580852864</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B39" s="4">
         <v>3.52</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" s="4">
         <v>3.924851244093031</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B40" s="4">
         <v>3.08</v>
       </c>
-      <c r="B40" t="n">
-        <v>3.47720937947459</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="C40" s="4">
+        <v>3.4772093794745902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B41" s="4">
         <v>3.27</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" s="4">
         <v>3.047701714472935</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3.290145038974343</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3.2901450389743432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B43" s="4">
         <v>2.56</v>
       </c>
-      <c r="B43" t="n">
-        <v>2.222775968806819</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="C43" s="4">
+        <v>2.2227759688068192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B44" s="4">
         <v>2.86</v>
       </c>
-      <c r="B44" t="n">
-        <v>2.640530753521842</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="C44" s="4">
+        <v>2.6405307535218419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B45" s="4">
         <v>2.61</v>
       </c>
-      <c r="B45" t="n">
-        <v>2.969150149921303</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="C45" s="4">
+        <v>2.9691501499213029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45292</v>
+      </c>
+      <c r="B46" s="4">
         <v>2.569999999999999</v>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" s="4">
         <v>2.635396026815513</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B47" s="4">
         <v>2.75</v>
       </c>
-      <c r="B47" t="n">
-        <v>2.662192547122466</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="C47" s="4">
+        <v>2.6621925471224661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>45352</v>
+      </c>
+      <c r="B48" s="4">
         <v>3.05</v>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" s="4">
         <v>2.914357307922665</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>45383</v>
+      </c>
+      <c r="B49" s="4">
         <v>3</v>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" s="4">
         <v>3.164445579426034</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B50" s="4">
         <v>2.84</v>
       </c>
-      <c r="B50" t="n">
-        <v>3.113068229757405</v>
+      <c r="C50" s="4">
+        <v>3.1130682297574048</v>
       </c>
     </row>
   </sheetData>
